--- a/app/src/main/assets/performD.xlsx
+++ b/app/src/main/assets/performD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sever1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sever1/workplace/RoomStu/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>序号</t>
   </si>
@@ -92,323 +92,6 @@
       </rPr>
       <t>自然灰</t>
     </r>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6970582792775</t>
-  </si>
-  <si>
-    <r>
-      <t>完美日记双头自动六角眉笔04#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>棕色</t>
-    </r>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6970582792768</t>
-  </si>
-  <si>
-    <r>
-      <t>完美日记双头自动六角眉笔05#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>咖啡色</t>
-    </r>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6970582790146</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">完美日记(PERFECT DIARY) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纤长持久睫毛膏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑色细刷头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6970582794335 </t>
-  </si>
-  <si>
-    <r>
-      <t>完美日记斑虎盘 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>色眼影</t>
-    </r>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6970582794373</t>
-  </si>
-  <si>
-    <t>完美日记小猪盘-12色眼影</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6941311502842</t>
-  </si>
-  <si>
-    <t>完美日记猫咪盘-12色眼影</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6941311502835</t>
-  </si>
-  <si>
-    <t>完美日记小狗盘--12色眼影</t>
-  </si>
-  <si>
-    <t>热销</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6941311514791</t>
-  </si>
-  <si>
-    <t>完美日记 探险家十二色眼影10 锦鲤</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6941311508196</t>
-  </si>
-  <si>
-    <r>
-      <t>完美日记至臻柔色丝绒唇釉V01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（丝绒）</t>
-    </r>
-  </si>
-  <si>
-    <t>复古红梨色</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6941311508226</t>
-  </si>
-  <si>
-    <t>完美日记至臻柔色丝绒唇釉V02（丝绒）</t>
-  </si>
-  <si>
-    <t>粉色兹调红色</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>6941311508233</t>
-  </si>
-  <si>
-    <t>完美日记至臻柔色丝绒唇釉V03（丝绒）</t>
-  </si>
-  <si>
-    <t>鲜红山楂色</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>6941311508240</t>
-  </si>
-  <si>
-    <t>?完美日记 （PERFECT DIARY）至臻柔色丝绒唇釉  V04色 勃艮第帷幕 2.5g</t>
-  </si>
-  <si>
-    <t>浆果棕色</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>6941311508264</t>
-  </si>
-  <si>
-    <t>完美日记至臻柔色丝绒 唇釉V06(丝绒)</t>
-  </si>
-  <si>
-    <t>梅子色</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>6941311508271</t>
-  </si>
-  <si>
-    <t>完美日记至臻柔色丝绒唇釉V07（丝绒）</t>
-  </si>
-  <si>
-    <t>冰糖柿子</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>6941311508288</t>
-  </si>
-  <si>
-    <t>完美日记至臻柔色丝绒唇釉V08（丝绒）</t>
-  </si>
-  <si>
-    <t>玫瑰桃金</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>6941311506437</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">完美日记 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云纱柔焦控油散粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（三丽鸥大耳狗限定款）</t>
-    </r>
-  </si>
-  <si>
-    <t>自然白</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>6941311506444</t>
-  </si>
-  <si>
-    <t>完美日记 云纱柔焦控油散粉 02（三丽鸥布丁狗限定款）</t>
-  </si>
-  <si>
-    <t>嫩肤色/粉调偏白</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>6941311506451</t>
-  </si>
-  <si>
-    <t>完美日记 云纱柔焦控油散粉 03（三丽鸥蛋黄哥限定款）</t>
-  </si>
-  <si>
-    <t>自然色/黄调自然</t>
   </si>
 </sst>
 </file>
@@ -641,8 +324,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -709,8 +392,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -777,8 +460,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>838200</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -845,8 +528,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -913,8 +596,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -981,8 +664,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1049,8 +732,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1117,8 +800,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>698500</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,8 +868,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1253,8 +936,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>749300</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1321,8 +1004,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,8 +1072,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1457,8 +1140,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1525,8 +1208,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1593,8 +1276,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1661,8 +1344,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1729,8 +1412,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>812800</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1797,8 +1480,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>774700</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2123,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J20" sqref="A3:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2194,550 +1877,238 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>24.5</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="I3" s="4">
-        <v>24</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="8">
-        <v>24.5</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.49</v>
-      </c>
-      <c r="I4" s="9">
-        <v>24</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>79</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.43291139240506332</v>
-      </c>
-      <c r="G5" s="3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.42405063291139239</v>
-      </c>
-      <c r="I5" s="4">
-        <v>33.5</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5">
-        <v>199</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.44221105527638194</v>
-      </c>
-      <c r="G6" s="8">
-        <v>88</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.43467336683417085</v>
-      </c>
-      <c r="I6" s="9">
-        <v>86.5</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1">
-        <v>199</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.44221105527638194</v>
-      </c>
-      <c r="G7" s="3">
-        <v>88</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.43467336683417085</v>
-      </c>
-      <c r="I7" s="4">
-        <v>86.5</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5">
-        <v>199</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.44221105527638194</v>
-      </c>
-      <c r="G8" s="8">
-        <v>88</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.43467336683417085</v>
-      </c>
-      <c r="I8" s="9">
-        <v>86.5</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1">
-        <v>199</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.44221105527638194</v>
-      </c>
-      <c r="G9" s="3">
-        <v>88</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.43467336683417085</v>
-      </c>
-      <c r="I9" s="4">
-        <v>86.5</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5">
-        <v>199</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.44221105527638194</v>
-      </c>
-      <c r="G10" s="8">
-        <v>88</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.43467336683417085</v>
-      </c>
-      <c r="I10" s="9">
-        <v>86.5</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1">
-        <v>119</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.36974789915966388</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.36302521008403366</v>
-      </c>
-      <c r="I11" s="4">
-        <v>43.2</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="5">
-        <v>119</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.36974789915966388</v>
-      </c>
-      <c r="G12" s="8">
-        <v>44</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.36302521008403366</v>
-      </c>
-      <c r="I12" s="9">
-        <v>43.2</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1">
-        <v>119</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.36974789915966388</v>
-      </c>
-      <c r="G13" s="3">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.36302521008403366</v>
-      </c>
-      <c r="I13" s="4">
-        <v>43.2</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="5">
-        <v>119</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.36974789915966388</v>
-      </c>
-      <c r="G14" s="8">
-        <v>44</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.36302521008403366</v>
-      </c>
-      <c r="I14" s="9">
-        <v>43.2</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1">
-        <v>119</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.36974789915966388</v>
-      </c>
-      <c r="G15" s="3">
-        <v>44</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.36302521008403366</v>
-      </c>
-      <c r="I15" s="4">
-        <v>43.2</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="5">
-        <v>119</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.36974789915966388</v>
-      </c>
-      <c r="G16" s="8">
-        <v>44</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.36302521008403366</v>
-      </c>
-      <c r="I16" s="9">
-        <v>43.2</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="1">
-        <v>119</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.36974789915966388</v>
-      </c>
-      <c r="G17" s="3">
-        <v>44</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.36302521008403366</v>
-      </c>
-      <c r="I17" s="4">
-        <v>43.2</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>65</v>
-      </c>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="5">
-        <v>169</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.40532544378698226</v>
-      </c>
-      <c r="G18" s="8">
-        <v>68.5</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.39644970414201186</v>
-      </c>
-      <c r="I18" s="9">
-        <v>67</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="1">
-        <v>169</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.40532544378698226</v>
-      </c>
-      <c r="G19" s="3">
-        <v>68.5</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.39644970414201186</v>
-      </c>
-      <c r="I19" s="4">
-        <v>67</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>73</v>
-      </c>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5">
-        <v>169</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.40532544378698226</v>
-      </c>
-      <c r="G20" s="8">
-        <v>68.5</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.39644970414201186</v>
-      </c>
-      <c r="I20" s="9">
-        <v>67</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
   </sheetData>
